--- a/KINX5AB2.xlsx
+++ b/KINX5AB2.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>lundi</t>
+    <t>vendredi</t>
   </si>
   <si>
     <t xml:space="preserve">Administration Système (KINX5AB2) - CC  </t>
@@ -95,7 +95,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44935.0</v>
+        <v>46031.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
